--- a/MakeJson/Source/Case/DataTestCase.xlsx
+++ b/MakeJson/Source/Case/DataTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19190" windowHeight="7670"/>
+    <workbookView windowWidth="18640" windowHeight="7670"/>
   </bookViews>
   <sheets>
     <sheet name="1.测试用例-应用-新增" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -94,10 +94,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>device_id=iugswfihqwoigf</t>
-  </si>
-  <si>
-    <t>portrait</t>
+    <t>vin=iugswfihqwoigf</t>
+  </si>
+  <si>
+    <t>IntelligentScenario</t>
   </si>
   <si>
     <t>1、打开平台系统
@@ -108,10 +108,7 @@
     <t>新增用户数2</t>
   </si>
   <si>
-    <t>device_id=iugswigf</t>
-  </si>
-  <si>
-    <t>ETLenv-1</t>
+    <t>user_id=iugswigf</t>
   </si>
   <si>
     <t>1、打开平台系统
@@ -126,9 +123,6 @@
   </si>
   <si>
     <t>vin=1233456</t>
-  </si>
-  <si>
-    <t>TSP</t>
   </si>
   <si>
     <t>1、打开平台系统
@@ -142,9 +136,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[Blue][=0]&quot;○&quot;;[Red][&lt;=9]&quot;×&quot;;[Blue]General"/>
   </numFmts>
   <fonts count="27">
@@ -173,6 +167,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -180,8 +179,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,93 +279,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -295,34 +309,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -330,8 +316,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,37 +346,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,145 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,6 +710,80 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,80 +803,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -825,152 +819,152 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1423,7 +1417,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1608,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="26"/>
@@ -1636,16 +1630,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>25</v>
@@ -1654,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="27"/>
